--- a/JackBox.xlsx
+++ b/JackBox.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\main\baumanec\JackBox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F833B91D-3BB0-4B18-92BF-7DD3202351E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AFC75A-3DBE-4B68-BBE5-AD97A2EF1EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Вопросы" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="82">
   <si>
     <t>Вариант 1</t>
   </si>
@@ -138,12 +138,153 @@
   <si>
     <t>Вопрос 4</t>
   </si>
+  <si>
+    <t>Хуй</t>
+  </si>
+  <si>
+    <t>Пизда</t>
+  </si>
+  <si>
+    <t>Сковорода</t>
+  </si>
+  <si>
+    <t>Член</t>
+  </si>
+  <si>
+    <t>афвы</t>
+  </si>
+  <si>
+    <t>фыва</t>
+  </si>
+  <si>
+    <t>екн</t>
+  </si>
+  <si>
+    <t>уке</t>
+  </si>
+  <si>
+    <t>гкен</t>
+  </si>
+  <si>
+    <t>кенг</t>
+  </si>
+  <si>
+    <t>ьатп</t>
+  </si>
+  <si>
+    <t>прьа</t>
+  </si>
+  <si>
+    <t>паро</t>
+  </si>
+  <si>
+    <t>Что?</t>
+  </si>
+  <si>
+    <t>Кого?</t>
+  </si>
+  <si>
+    <t>Таво?</t>
+  </si>
+  <si>
+    <t>Его?</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Подключайтесь к игре!</t>
+  </si>
+  <si>
+    <t>0.png</t>
+  </si>
+  <si>
+    <t>Кто не поздравил Лёшу с ДР?</t>
+  </si>
+  <si>
+    <t>Я</t>
+  </si>
+  <si>
+    <t>Максим</t>
+  </si>
+  <si>
+    <t>Поварёнок</t>
+  </si>
+  <si>
+    <t>Котёнок</t>
+  </si>
+  <si>
+    <t>3.jpg</t>
+  </si>
+  <si>
+    <t>4.jpg</t>
+  </si>
+  <si>
+    <t>9.jpg</t>
+  </si>
+  <si>
+    <t>10.jpg</t>
+  </si>
+  <si>
+    <t>11.jpg</t>
+  </si>
+  <si>
+    <t>12.jpg</t>
+  </si>
+  <si>
+    <t>13.jpg</t>
+  </si>
+  <si>
+    <t>14.jpg</t>
+  </si>
+  <si>
+    <t>15.jpg</t>
+  </si>
+  <si>
+    <t>16.jpg</t>
+  </si>
+  <si>
+    <t>17.jpg</t>
+  </si>
+  <si>
+    <t>18.jpg</t>
+  </si>
+  <si>
+    <t>19.jpg</t>
+  </si>
+  <si>
+    <t>20.jpg</t>
+  </si>
+  <si>
+    <t>21.jpg</t>
+  </si>
+  <si>
+    <t>22.jpg</t>
+  </si>
+  <si>
+    <t>23.jpg</t>
+  </si>
+  <si>
+    <t>24.jpg</t>
+  </si>
+  <si>
+    <t>25.jpg</t>
+  </si>
+  <si>
+    <t>26.jpg</t>
+  </si>
+  <si>
+    <t>27.jpg</t>
+  </si>
+  <si>
+    <t>Кто не отправил Лёше валентинку?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -159,6 +300,14 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -191,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -216,7 +365,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -439,16 +604,17 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="4"/>
-    <col min="2" max="2" width="22" style="4" customWidth="1"/>
+    <col min="2" max="2" width="32" style="4" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="12.5703125" style="4"/>
+    <col min="4" max="8" width="12.5703125" style="16"/>
+    <col min="9" max="9" width="12.5703125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
@@ -496,121 +662,226 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
+        <f t="shared" ref="A4:A29" si="0">A3+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="2"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-    </row>
     <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="2"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="A5" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="2"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="A6" s="11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="2"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="A7" s="11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="2"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="A8" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>40</v>
+      </c>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="2"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="A9" s="11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="2"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="A10" s="11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
+      <c r="A11" s="11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="B11" s="2"/>
+      <c r="C11" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -618,8 +889,14 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
+      <c r="A12" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="B12" s="2"/>
+      <c r="C12" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -627,8 +904,14 @@
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
+      <c r="A13" s="11">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="B13" s="2"/>
+      <c r="C13" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -636,8 +919,14 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
+      <c r="A14" s="11">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="B14" s="2"/>
+      <c r="C14" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -645,8 +934,14 @@
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
+      <c r="A15" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="B15" s="2"/>
+      <c r="C15" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -654,8 +949,14 @@
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
+      <c r="A16" s="11">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
       <c r="B16" s="2"/>
+      <c r="C16" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -663,8 +964,14 @@
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
+      <c r="A17" s="11">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
       <c r="B17" s="2"/>
+      <c r="C17" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -672,8 +979,14 @@
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
+      <c r="A18" s="11">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
       <c r="B18" s="2"/>
+      <c r="C18" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -681,8 +994,14 @@
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
+      <c r="A19" s="11">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
       <c r="B19" s="2"/>
+      <c r="C19" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -690,8 +1009,14 @@
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
+      <c r="A20" s="11">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
       <c r="B20" s="2"/>
+      <c r="C20" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -699,8 +1024,14 @@
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
+      <c r="A21" s="11">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
       <c r="B21" s="2"/>
+      <c r="C21" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -708,8 +1039,14 @@
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
+      <c r="A22" s="11">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
       <c r="B22" s="2"/>
+      <c r="C22" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -717,8 +1054,14 @@
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
+      <c r="A23" s="11">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
       <c r="B23" s="2"/>
+      <c r="C23" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -726,8 +1069,14 @@
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
+      <c r="A24" s="11">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
       <c r="B24" s="2"/>
+      <c r="C24" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -735,8 +1084,14 @@
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
+      <c r="A25" s="11">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
       <c r="B25" s="2"/>
+      <c r="C25" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -744,8 +1099,14 @@
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
+      <c r="A26" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
       <c r="B26" s="2"/>
+      <c r="C26" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -753,8 +1114,14 @@
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
+      <c r="A27" s="11">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
       <c r="B27" s="2"/>
+      <c r="C27" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -762,8 +1129,14 @@
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
+      <c r="A28" s="11">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
       <c r="B28" s="2"/>
+      <c r="C28" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -771,8 +1144,14 @@
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
+      <c r="A29" s="11">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
       <c r="B29" s="2"/>
+      <c r="C29" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -780,7 +1159,7 @@
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
+      <c r="A30" s="11"/>
       <c r="B30" s="2"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -789,7 +1168,7 @@
       <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="5"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="2"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -798,7 +1177,7 @@
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="5"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="2"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -807,7 +1186,7 @@
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="5"/>
+      <c r="A33" s="11"/>
       <c r="B33" s="2"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -816,7 +1195,7 @@
       <c r="H33" s="5"/>
     </row>
     <row r="34" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="5"/>
+      <c r="A34" s="11"/>
       <c r="B34" s="2"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -825,7 +1204,7 @@
       <c r="H34" s="5"/>
     </row>
     <row r="35" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="5"/>
+      <c r="A35" s="11"/>
       <c r="B35" s="2"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -834,7 +1213,7 @@
       <c r="H35" s="5"/>
     </row>
     <row r="36" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="5"/>
+      <c r="A36" s="11"/>
       <c r="B36" s="2"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -843,7 +1222,7 @@
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="5"/>
+      <c r="A37" s="11"/>
       <c r="B37" s="2"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -852,7 +1231,7 @@
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="5"/>
+      <c r="A38" s="11"/>
       <c r="B38" s="2"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -861,7 +1240,7 @@
       <c r="H38" s="5"/>
     </row>
     <row r="39" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="5"/>
+      <c r="A39" s="11"/>
       <c r="B39" s="2"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -870,7 +1249,7 @@
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="5"/>
+      <c r="A40" s="11"/>
       <c r="B40" s="2"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -879,7 +1258,7 @@
       <c r="H40" s="5"/>
     </row>
     <row r="41" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="5"/>
+      <c r="A41" s="11"/>
       <c r="B41" s="2"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -888,7 +1267,7 @@
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="5"/>
+      <c r="A42" s="11"/>
       <c r="B42" s="2"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
@@ -897,7 +1276,7 @@
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="5"/>
+      <c r="A43" s="11"/>
       <c r="B43" s="2"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -906,7 +1285,7 @@
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="5"/>
+      <c r="A44" s="11"/>
       <c r="B44" s="2"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -915,7 +1294,7 @@
       <c r="H44" s="5"/>
     </row>
     <row r="45" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="5"/>
+      <c r="A45" s="11"/>
       <c r="B45" s="2"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -924,7 +1303,7 @@
       <c r="H45" s="5"/>
     </row>
     <row r="46" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="5"/>
+      <c r="A46" s="11"/>
       <c r="B46" s="2"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -933,7 +1312,7 @@
       <c r="H46" s="5"/>
     </row>
     <row r="47" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="5"/>
+      <c r="A47" s="11"/>
       <c r="B47" s="2"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -942,7 +1321,7 @@
       <c r="H47" s="5"/>
     </row>
     <row r="48" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="5"/>
+      <c r="A48" s="11"/>
       <c r="B48" s="2"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -951,7 +1330,7 @@
       <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="5"/>
+      <c r="A49" s="11"/>
       <c r="B49" s="2"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -960,7 +1339,7 @@
       <c r="H49" s="5"/>
     </row>
     <row r="50" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="5"/>
+      <c r="A50" s="11"/>
       <c r="B50" s="2"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -969,7 +1348,7 @@
       <c r="H50" s="5"/>
     </row>
     <row r="51" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="5"/>
+      <c r="A51" s="11"/>
       <c r="B51" s="2"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -978,7 +1357,7 @@
       <c r="H51" s="5"/>
     </row>
     <row r="52" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="5"/>
+      <c r="A52" s="11"/>
       <c r="B52" s="2"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -987,7 +1366,7 @@
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="5"/>
+      <c r="A53" s="11"/>
       <c r="B53" s="2"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -996,7 +1375,7 @@
       <c r="H53" s="5"/>
     </row>
     <row r="54" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="5"/>
+      <c r="A54" s="11"/>
       <c r="B54" s="2"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -1005,7 +1384,7 @@
       <c r="H54" s="5"/>
     </row>
     <row r="55" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="5"/>
+      <c r="A55" s="10"/>
       <c r="B55" s="2"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -1014,7 +1393,7 @@
       <c r="H55" s="5"/>
     </row>
     <row r="56" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="5"/>
+      <c r="A56" s="10"/>
       <c r="B56" s="2"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -1023,7 +1402,7 @@
       <c r="H56" s="5"/>
     </row>
     <row r="57" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="5"/>
+      <c r="A57" s="10"/>
       <c r="B57" s="2"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
@@ -1032,7 +1411,7 @@
       <c r="H57" s="5"/>
     </row>
     <row r="58" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="5"/>
+      <c r="A58" s="10"/>
       <c r="B58" s="2"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -1041,7 +1420,7 @@
       <c r="H58" s="5"/>
     </row>
     <row r="59" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="5"/>
+      <c r="A59" s="10"/>
       <c r="B59" s="2"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
@@ -1050,7 +1429,7 @@
       <c r="H59" s="5"/>
     </row>
     <row r="60" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="5"/>
+      <c r="A60" s="10"/>
       <c r="B60" s="2"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -1059,7 +1438,7 @@
       <c r="H60" s="5"/>
     </row>
     <row r="61" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="5"/>
+      <c r="A61" s="10"/>
       <c r="B61" s="2"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -1068,7 +1447,7 @@
       <c r="H61" s="5"/>
     </row>
     <row r="62" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="5"/>
+      <c r="A62" s="10"/>
       <c r="B62" s="2"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -1077,7 +1456,7 @@
       <c r="H62" s="5"/>
     </row>
     <row r="63" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="5"/>
+      <c r="A63" s="10"/>
       <c r="B63" s="2"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
@@ -1086,7 +1465,7 @@
       <c r="H63" s="5"/>
     </row>
     <row r="64" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="5"/>
+      <c r="A64" s="10"/>
       <c r="B64" s="2"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -1095,7 +1474,7 @@
       <c r="H64" s="5"/>
     </row>
     <row r="65" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="5"/>
+      <c r="A65" s="10"/>
       <c r="B65" s="2"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
@@ -9528,8 +9907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C55BE45A-8D05-463D-B509-E57A9EC07593}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9540,30 +9919,30 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="9"/>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
       <c r="F1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
       <c r="K1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
       <c r="P1" s="9" t="s">
         <v>27</v>
       </c>
@@ -9622,7 +10001,7 @@
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9">
-        <f t="shared" ref="F3:F30" si="0">SUM(B3:E3)</f>
+        <f t="shared" ref="F3:F4" si="0">SUM(B3:E3)</f>
         <v>0</v>
       </c>
       <c r="G3" s="9"/>
@@ -9630,7 +10009,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
       <c r="K3" s="9">
-        <f t="shared" ref="K3:K30" si="1">SUM(G3:J3)</f>
+        <f t="shared" ref="K3:K4" si="1">SUM(G3:J3)</f>
         <v>0</v>
       </c>
       <c r="L3" s="9"/>
@@ -9638,11 +10017,11 @@
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
       <c r="P3" s="9">
-        <f t="shared" ref="P3:P30" si="2">SUM(L3:O3)</f>
+        <f t="shared" ref="P3:P4" si="2">SUM(L3:O3)</f>
         <v>0</v>
       </c>
       <c r="Q3" s="9">
-        <f t="shared" ref="Q3:Q30" si="3">F3+K3+P3</f>
+        <f t="shared" ref="Q3:Q4" si="3">F3+K3+P3</f>
         <v>0</v>
       </c>
     </row>

--- a/JackBox.xlsx
+++ b/JackBox.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\main\baumanec\JackBox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AFC75A-3DBE-4B68-BBE5-AD97A2EF1EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2BDC45-93D6-4312-B1BC-4451BB3D9174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9705" yWindow="0" windowWidth="28800" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Вопросы" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="142">
   <si>
     <t>Вариант 1</t>
   </si>
@@ -49,39 +49,6 @@
     <t>Вариант 5</t>
   </si>
   <si>
-    <t>Какой этот чел?</t>
-  </si>
-  <si>
-    <t>Простой</t>
-  </si>
-  <si>
-    <t>Сложный</t>
-  </si>
-  <si>
-    <t>Хомяк</t>
-  </si>
-  <si>
-    <t>Чел</t>
-  </si>
-  <si>
-    <t>Кого нет на картинке?</t>
-  </si>
-  <si>
-    <t>Собаки</t>
-  </si>
-  <si>
-    <t>Обезьяны</t>
-  </si>
-  <si>
-    <t>Кота</t>
-  </si>
-  <si>
-    <t>Тебя</t>
-  </si>
-  <si>
-    <t>Курицы</t>
-  </si>
-  <si>
     <t>image</t>
   </si>
   <si>
@@ -91,12 +58,6 @@
     <t>number</t>
   </si>
   <si>
-    <t>1.jpg</t>
-  </si>
-  <si>
-    <t>2.jpg</t>
-  </si>
-  <si>
     <t>Название команды</t>
   </si>
   <si>
@@ -139,145 +100,364 @@
     <t>Вопрос 4</t>
   </si>
   <si>
-    <t>Хуй</t>
-  </si>
-  <si>
-    <t>Пизда</t>
-  </si>
-  <si>
-    <t>Сковорода</t>
-  </si>
-  <si>
-    <t>Член</t>
-  </si>
-  <si>
-    <t>афвы</t>
-  </si>
-  <si>
-    <t>фыва</t>
-  </si>
-  <si>
-    <t>екн</t>
-  </si>
-  <si>
-    <t>уке</t>
-  </si>
-  <si>
-    <t>гкен</t>
-  </si>
-  <si>
-    <t>кенг</t>
-  </si>
-  <si>
-    <t>ьатп</t>
-  </si>
-  <si>
-    <t>прьа</t>
-  </si>
-  <si>
-    <t>паро</t>
-  </si>
-  <si>
-    <t>Что?</t>
-  </si>
-  <si>
-    <t>Кого?</t>
-  </si>
-  <si>
-    <t>Таво?</t>
-  </si>
-  <si>
-    <t>Его?</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
-    <t>Подключайтесь к игре!</t>
-  </si>
-  <si>
     <t>0.png</t>
   </si>
   <si>
-    <t>Кто не поздравил Лёшу с ДР?</t>
-  </si>
-  <si>
-    <t>Я</t>
-  </si>
-  <si>
-    <t>Максим</t>
-  </si>
-  <si>
-    <t>Поварёнок</t>
-  </si>
-  <si>
-    <t>Котёнок</t>
-  </si>
-  <si>
-    <t>3.jpg</t>
-  </si>
-  <si>
-    <t>4.jpg</t>
-  </si>
-  <si>
-    <t>9.jpg</t>
-  </si>
-  <si>
-    <t>10.jpg</t>
-  </si>
-  <si>
-    <t>11.jpg</t>
-  </si>
-  <si>
-    <t>12.jpg</t>
-  </si>
-  <si>
-    <t>13.jpg</t>
-  </si>
-  <si>
-    <t>14.jpg</t>
-  </si>
-  <si>
-    <t>15.jpg</t>
-  </si>
-  <si>
-    <t>16.jpg</t>
-  </si>
-  <si>
-    <t>17.jpg</t>
-  </si>
-  <si>
-    <t>18.jpg</t>
-  </si>
-  <si>
-    <t>19.jpg</t>
-  </si>
-  <si>
-    <t>20.jpg</t>
-  </si>
-  <si>
-    <t>21.jpg</t>
-  </si>
-  <si>
-    <t>22.jpg</t>
-  </si>
-  <si>
-    <t>23.jpg</t>
-  </si>
-  <si>
-    <t>24.jpg</t>
-  </si>
-  <si>
-    <t>25.jpg</t>
-  </si>
-  <si>
-    <t>26.jpg</t>
-  </si>
-  <si>
-    <t>27.jpg</t>
-  </si>
-  <si>
-    <t>Кто не отправил Лёше валентинку?</t>
+    <t>Сколько лет исполнилось лагерю Бауманец в 2015 году?</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>Каково расстояние от ГЗ МГТУ им. Баумана до клуба в Бауманце?</t>
+  </si>
+  <si>
+    <t>!63</t>
+  </si>
+  <si>
+    <t>!106 км</t>
+  </si>
+  <si>
+    <t>110 км</t>
+  </si>
+  <si>
+    <t>116 км</t>
+  </si>
+  <si>
+    <t>120 км</t>
+  </si>
+  <si>
+    <t>Какая станция идёт после станции Ступино, если ехать из Москвы?</t>
+  </si>
+  <si>
+    <t>Кашира</t>
+  </si>
+  <si>
+    <t>Тесна</t>
+  </si>
+  <si>
+    <t>Белопесоцкий</t>
+  </si>
+  <si>
+    <t>!Акри</t>
+  </si>
+  <si>
+    <t>baumanec_logo.jpg</t>
+  </si>
+  <si>
+    <t>distation.png</t>
+  </si>
+  <si>
+    <t>stations.jpg</t>
+  </si>
+  <si>
+    <t>Какое отчество у Лёши?</t>
+  </si>
+  <si>
+    <t>!Викторович</t>
+  </si>
+  <si>
+    <t>Васильевич</t>
+  </si>
+  <si>
+    <t>Витальевич</t>
+  </si>
+  <si>
+    <t>Владимирович</t>
+  </si>
+  <si>
+    <t>lesha.jpg</t>
+  </si>
+  <si>
+    <t>height.jpg</t>
+  </si>
+  <si>
+    <t>160 см</t>
+  </si>
+  <si>
+    <t>150 см</t>
+  </si>
+  <si>
+    <t>144 см</t>
+  </si>
+  <si>
+    <t>Какое самое популярное имя среди детей (на второй смене)?</t>
+  </si>
+  <si>
+    <t>Какой средний рост детей (на второй смене)?</t>
+  </si>
+  <si>
+    <t>Анастасия</t>
+  </si>
+  <si>
+    <t>Андрей</t>
+  </si>
+  <si>
+    <t>Мария</t>
+  </si>
+  <si>
+    <t>names.png</t>
+  </si>
+  <si>
+    <t>Пилотку</t>
+  </si>
+  <si>
+    <t>Сводку</t>
+  </si>
+  <si>
+    <t>!Коробку</t>
+  </si>
+  <si>
+    <t>Селёдку</t>
+  </si>
+  <si>
+    <t>full_as.png</t>
+  </si>
+  <si>
+    <t>Что, согласно тексту, несёт до вожатых герой песни Полный Ас?</t>
+  </si>
+  <si>
+    <t>Во сколько, согласно распорядку дня, отбой у старших отрядов?</t>
+  </si>
+  <si>
+    <t>timetable.png</t>
+  </si>
+  <si>
+    <t>21:30</t>
+  </si>
+  <si>
+    <t>21:45</t>
+  </si>
+  <si>
+    <t>22:15</t>
+  </si>
+  <si>
+    <t>!22:00</t>
+  </si>
+  <si>
+    <t>Сколько человек может проживать в казарме?</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>В каком корпусе и на каком этаже нет чемоданной?</t>
+  </si>
+  <si>
+    <t>2 корпус, 1 этаж</t>
+  </si>
+  <si>
+    <t>3 корпус, 1 этаж</t>
+  </si>
+  <si>
+    <t>3 корпус, 2 этаж</t>
+  </si>
+  <si>
+    <t>!2 корпус, 2 этаж</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>casarma.jpg</t>
+  </si>
+  <si>
+    <t>!18</t>
+  </si>
+  <si>
+    <t>housing.jpg</t>
+  </si>
+  <si>
+    <t>Какая из следующих рек образует самое глубокое ущелье в мире?</t>
+  </si>
+  <si>
+    <t>river.jpg</t>
+  </si>
+  <si>
+    <t>!Колорадо</t>
+  </si>
+  <si>
+    <t>Амазонка</t>
+  </si>
+  <si>
+    <t>Конго</t>
+  </si>
+  <si>
+    <t>Янцзы</t>
+  </si>
+  <si>
+    <t>Какой из перечисленных языков является самым распространенным на территории Индии?</t>
+  </si>
+  <si>
+    <t>languages.jpg</t>
+  </si>
+  <si>
+    <t>Английский</t>
+  </si>
+  <si>
+    <t>Урду</t>
+  </si>
+  <si>
+    <t>Бенгальский</t>
+  </si>
+  <si>
+    <t>!Хинди</t>
+  </si>
+  <si>
+    <t>Гамлет</t>
+  </si>
+  <si>
+    <t>Ромео и Джульетта</t>
+  </si>
+  <si>
+    <t>Отелло</t>
+  </si>
+  <si>
+    <t>!Перикл</t>
+  </si>
+  <si>
+    <t>Какое произведение, иногда приписываемое Уильяму Шекспиру, считается написанным в сотрудничестве с Джорджем Уилкинсоном?</t>
+  </si>
+  <si>
+    <t>shakespeare.jpg</t>
+  </si>
+  <si>
+    <t>Какое растение имеет наибольшее количество видов среди всех растений на Земле?</t>
+  </si>
+  <si>
+    <t>flowers.jpg</t>
+  </si>
+  <si>
+    <t>Папоротники</t>
+  </si>
+  <si>
+    <t>Мхи</t>
+  </si>
+  <si>
+    <t>Лишайники</t>
+  </si>
+  <si>
+    <t>!Цветковые растения</t>
+  </si>
+  <si>
+    <t>Какая страна является родиной кенгуру?</t>
+  </si>
+  <si>
+    <t>Новая Зеландия</t>
+  </si>
+  <si>
+    <t>Индонезия</t>
+  </si>
+  <si>
+    <t>Тасмания</t>
+  </si>
+  <si>
+    <t>Какая страна является родиной сакэ?</t>
+  </si>
+  <si>
+    <t>Китай</t>
+  </si>
+  <si>
+    <t>!Австралия</t>
+  </si>
+  <si>
+    <t>Корея</t>
+  </si>
+  <si>
+    <t>Вьетнам</t>
+  </si>
+  <si>
+    <t>!Япония</t>
+  </si>
+  <si>
+    <t>kangaroo.jpg</t>
+  </si>
+  <si>
+    <t>Какая страна является родиной кетчупа?</t>
+  </si>
+  <si>
+    <t>!США</t>
+  </si>
+  <si>
+    <t>Индия</t>
+  </si>
+  <si>
+    <t>Малайзия</t>
+  </si>
+  <si>
+    <t>sake.jpg</t>
+  </si>
+  <si>
+    <t>ketchup.jpg</t>
+  </si>
+  <si>
+    <t>Вопрос для введения текста</t>
+  </si>
+  <si>
+    <t>Текст</t>
+  </si>
+  <si>
+    <t>!156 см</t>
+  </si>
+  <si>
+    <t>!Анна</t>
+  </si>
+  <si>
+    <t>screen_question.jpg</t>
+  </si>
+  <si>
+    <t>Игра скоро начнётся!</t>
+  </si>
+  <si>
+    <t>Что за песня играет?</t>
+  </si>
+  <si>
+    <t>Валя Карнавал - частушка</t>
+  </si>
+  <si>
+    <t>SQWOZ BAB - ПЁТР 1</t>
+  </si>
+  <si>
+    <t>5sta family - Зачем?</t>
+  </si>
+  <si>
+    <t>Ногу свело! - Наши юные смешные голоса</t>
+  </si>
+  <si>
+    <t>Катя Лель – Мой Мармеладный!</t>
+  </si>
+  <si>
+    <t>Самое большое простое число – Комната!</t>
+  </si>
+  <si>
+    <t>Ответьте наиболее подходяще</t>
+  </si>
+  <si>
+    <t>На собрании вожатых</t>
+  </si>
+  <si>
+    <t>Окулолинктус</t>
+  </si>
+  <si>
+    <t>От детей &lt;3</t>
+  </si>
+  <si>
+    <t>С прослушивания плейлиста Макса</t>
+  </si>
+  <si>
+    <t>Приезжайте на инструктив, чтобы узнать</t>
   </si>
 </sst>
 </file>
@@ -314,18 +494,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor rgb="FF00FF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -340,7 +514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -358,10 +532,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -372,17 +542,52 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -602,41 +807,41 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="4"/>
-    <col min="2" max="2" width="32" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="12.5703125" style="16"/>
+    <col min="2" max="2" width="48.5703125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" style="16" customWidth="1"/>
+    <col min="4" max="8" width="22.85546875" style="11" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>18</v>
+      <c r="A1" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="5" t="s">
@@ -662,540 +867,672 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="23">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="23">
+        <f t="shared" ref="A4" si="0">A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="23">
+        <f>A4+1</f>
+        <v>3</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="23">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="23">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="23">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="14" t="s">
+      <c r="C8" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="21" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="11">
+      <c r="E8" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="23">
+        <v>7</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="23">
+        <v>8</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="23">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="23">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="23">
+        <v>11</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="23">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="23">
+        <v>13</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="23">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="23">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="23">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="23">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="23">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="23">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B21" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="23">
+        <v>2</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="23">
+        <v>3</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="23">
+        <v>4</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="23">
         <v>5</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="B25" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="23">
         <v>6</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="11">
-        <f t="shared" ref="A4:A29" si="0">A3+1</f>
+      <c r="B26" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="23">
+        <v>1</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="23">
+        <f t="shared" ref="A22:A45" si="1">A27+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="11">
-        <f t="shared" si="0"/>
+      <c r="B28" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="23">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="11">
-        <f t="shared" si="0"/>
+      <c r="B29" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="23">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="11">
-        <f t="shared" si="0"/>
+      <c r="B30" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="23">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="11">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="11">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="11">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="11">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="11">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="11">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="11">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="11">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="11">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="11">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="11">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="11">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="11">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="11">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="11">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="11">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="11">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="11">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="11">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="11">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-    </row>
-    <row r="30" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="11"/>
-      <c r="B30" s="2"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="11"/>
-      <c r="B31" s="2"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
+      <c r="B31" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="11"/>
+      <c r="A32" s="23"/>
       <c r="B32" s="2"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="11"/>
+      <c r="A33" s="23"/>
       <c r="B33" s="2"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
       <c r="H33" s="5"/>
     </row>
     <row r="34" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="11"/>
+      <c r="A34" s="9"/>
       <c r="B34" s="2"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -1204,7 +1541,7 @@
       <c r="H34" s="5"/>
     </row>
     <row r="35" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="11"/>
+      <c r="A35" s="9"/>
       <c r="B35" s="2"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -1213,7 +1550,7 @@
       <c r="H35" s="5"/>
     </row>
     <row r="36" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="11"/>
+      <c r="A36" s="9"/>
       <c r="B36" s="2"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -1222,7 +1559,7 @@
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="11"/>
+      <c r="A37" s="9"/>
       <c r="B37" s="2"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -1231,7 +1568,7 @@
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="11"/>
+      <c r="A38" s="9"/>
       <c r="B38" s="2"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -1240,7 +1577,7 @@
       <c r="H38" s="5"/>
     </row>
     <row r="39" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="11"/>
+      <c r="A39" s="9"/>
       <c r="B39" s="2"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -1249,7 +1586,7 @@
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="11"/>
+      <c r="A40" s="9"/>
       <c r="B40" s="2"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -1258,7 +1595,7 @@
       <c r="H40" s="5"/>
     </row>
     <row r="41" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="11"/>
+      <c r="A41" s="9"/>
       <c r="B41" s="2"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -1267,7 +1604,7 @@
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="11"/>
+      <c r="A42" s="9"/>
       <c r="B42" s="2"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
@@ -1276,7 +1613,7 @@
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="11"/>
+      <c r="A43" s="9"/>
       <c r="B43" s="2"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -1285,7 +1622,7 @@
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="11"/>
+      <c r="A44" s="9"/>
       <c r="B44" s="2"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -1294,7 +1631,7 @@
       <c r="H44" s="5"/>
     </row>
     <row r="45" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="11"/>
+      <c r="A45" s="9"/>
       <c r="B45" s="2"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -1303,7 +1640,7 @@
       <c r="H45" s="5"/>
     </row>
     <row r="46" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="11"/>
+      <c r="A46" s="9"/>
       <c r="B46" s="2"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -1312,7 +1649,7 @@
       <c r="H46" s="5"/>
     </row>
     <row r="47" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="11"/>
+      <c r="A47" s="9"/>
       <c r="B47" s="2"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -1321,7 +1658,7 @@
       <c r="H47" s="5"/>
     </row>
     <row r="48" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="11"/>
+      <c r="A48" s="9"/>
       <c r="B48" s="2"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -1330,7 +1667,7 @@
       <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="11"/>
+      <c r="A49" s="9"/>
       <c r="B49" s="2"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -1339,7 +1676,7 @@
       <c r="H49" s="5"/>
     </row>
     <row r="50" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="11"/>
+      <c r="A50" s="9"/>
       <c r="B50" s="2"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -1348,7 +1685,7 @@
       <c r="H50" s="5"/>
     </row>
     <row r="51" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="11"/>
+      <c r="A51" s="9"/>
       <c r="B51" s="2"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -1357,7 +1694,7 @@
       <c r="H51" s="5"/>
     </row>
     <row r="52" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="11"/>
+      <c r="A52" s="9"/>
       <c r="B52" s="2"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -1366,7 +1703,7 @@
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="11"/>
+      <c r="A53" s="9"/>
       <c r="B53" s="2"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -1375,7 +1712,7 @@
       <c r="H53" s="5"/>
     </row>
     <row r="54" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="11"/>
+      <c r="A54" s="9"/>
       <c r="B54" s="2"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -1384,7 +1721,7 @@
       <c r="H54" s="5"/>
     </row>
     <row r="55" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="10"/>
+      <c r="A55" s="8"/>
       <c r="B55" s="2"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -1393,7 +1730,7 @@
       <c r="H55" s="5"/>
     </row>
     <row r="56" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="10"/>
+      <c r="A56" s="8"/>
       <c r="B56" s="2"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -1402,7 +1739,7 @@
       <c r="H56" s="5"/>
     </row>
     <row r="57" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="10"/>
+      <c r="A57" s="8"/>
       <c r="B57" s="2"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
@@ -1411,7 +1748,7 @@
       <c r="H57" s="5"/>
     </row>
     <row r="58" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="10"/>
+      <c r="A58" s="8"/>
       <c r="B58" s="2"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -1420,7 +1757,7 @@
       <c r="H58" s="5"/>
     </row>
     <row r="59" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="10"/>
+      <c r="A59" s="8"/>
       <c r="B59" s="2"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
@@ -1429,7 +1766,7 @@
       <c r="H59" s="5"/>
     </row>
     <row r="60" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="10"/>
+      <c r="A60" s="8"/>
       <c r="B60" s="2"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -1438,7 +1775,7 @@
       <c r="H60" s="5"/>
     </row>
     <row r="61" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="10"/>
+      <c r="A61" s="8"/>
       <c r="B61" s="2"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -1447,7 +1784,7 @@
       <c r="H61" s="5"/>
     </row>
     <row r="62" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="10"/>
+      <c r="A62" s="8"/>
       <c r="B62" s="2"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -1456,7 +1793,7 @@
       <c r="H62" s="5"/>
     </row>
     <row r="63" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="10"/>
+      <c r="A63" s="8"/>
       <c r="B63" s="2"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
@@ -1465,7 +1802,7 @@
       <c r="H63" s="5"/>
     </row>
     <row r="64" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="10"/>
+      <c r="A64" s="8"/>
       <c r="B64" s="2"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -1474,7 +1811,7 @@
       <c r="H64" s="5"/>
     </row>
     <row r="65" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="10"/>
+      <c r="A65" s="8"/>
       <c r="B65" s="2"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
@@ -9896,6 +10233,13 @@
       <c r="F1000" s="5"/>
       <c r="G1000" s="5"/>
       <c r="H1000" s="5"/>
+    </row>
+    <row r="1001" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1001" s="2"/>
+      <c r="D1001" s="5"/>
+      <c r="E1001" s="5"/>
+      <c r="F1001" s="5"/>
+      <c r="G1001" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9914,617 +10258,617 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="9"/>
+    <col min="6" max="6" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="9"/>
+      <c r="A1" s="7"/>
       <c r="B1" s="15" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
-      <c r="F1" s="9" t="s">
-        <v>25</v>
+      <c r="F1" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
-      <c r="K1" s="9" t="s">
-        <v>26</v>
+      <c r="K1" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="M1" s="15"/>
       <c r="N1" s="15"/>
       <c r="O1" s="15"/>
-      <c r="P1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>28</v>
+      <c r="P1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>34</v>
+      <c r="G2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9">
+      <c r="A3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7">
         <f t="shared" ref="F3:F4" si="0">SUM(B3:E3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9">
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7">
         <f t="shared" ref="K3:K4" si="1">SUM(G3:J3)</f>
         <v>0</v>
       </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9">
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7">
         <f t="shared" ref="P3:P4" si="2">SUM(L3:O3)</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="Q3" s="7">
         <f t="shared" ref="Q3:Q4" si="3">F3+K3+P3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9">
+      <c r="A4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9">
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9">
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="Q4" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
